--- a/JupyterNotebooks/AveragedIntensities-Exp/AMstep1F.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/AMstep1F.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -692,55 +695,55 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8954722222222222</v>
+        <v>0.8952809798270893</v>
       </c>
       <c r="D3">
-        <v>1.163</v>
+        <v>1.138746397694524</v>
       </c>
       <c r="E3">
-        <v>1.01175</v>
+        <v>1.013292507204611</v>
       </c>
       <c r="F3">
-        <v>0.8954722222222222</v>
+        <v>0.8952809798270893</v>
       </c>
       <c r="G3">
-        <v>0.9896388888888888</v>
+        <v>0.9926729106628243</v>
       </c>
       <c r="H3">
-        <v>1.244333333333333</v>
+        <v>1.208206051873199</v>
       </c>
       <c r="I3">
-        <v>0.9746388888888889</v>
+        <v>0.9762680115273775</v>
       </c>
       <c r="J3">
-        <v>1.163</v>
+        <v>1.138746397694524</v>
       </c>
       <c r="K3">
-        <v>0.8954722222222222</v>
+        <v>0.8952809798270893</v>
       </c>
       <c r="L3">
-        <v>1.087375</v>
+        <v>1.076019452449568</v>
       </c>
       <c r="M3">
-        <v>1.087375</v>
+        <v>1.076019452449568</v>
       </c>
       <c r="N3">
-        <v>1.054796296296296</v>
+        <v>1.048237271853987</v>
       </c>
       <c r="O3">
-        <v>1.023407407407407</v>
+        <v>1.015773294908741</v>
       </c>
       <c r="P3">
-        <v>1.023407407407407</v>
+        <v>1.015773294908742</v>
       </c>
       <c r="Q3">
-        <v>0.9914236111111111</v>
+        <v>0.9856502161383286</v>
       </c>
       <c r="R3">
-        <v>0.9914236111111111</v>
+        <v>0.9856502161383286</v>
       </c>
       <c r="S3">
-        <v>1.046472222222222</v>
+        <v>1.037411143131604</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -751,55 +754,55 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.17</v>
+        <v>1.018824535448829</v>
       </c>
       <c r="D4">
-        <v>2.24</v>
+        <v>0.9933260971235289</v>
       </c>
       <c r="E4">
-        <v>1.08</v>
+        <v>0.9937748748443713</v>
       </c>
       <c r="F4">
-        <v>0.17</v>
+        <v>1.018824535448829</v>
       </c>
       <c r="G4">
-        <v>0.91</v>
+        <v>0.9951275235008941</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>0.9786944540411573</v>
       </c>
       <c r="I4">
-        <v>0.83</v>
+        <v>0.9973939832842261</v>
       </c>
       <c r="J4">
-        <v>2.24</v>
+        <v>0.9933260971235289</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>1.018824535448829</v>
       </c>
       <c r="L4">
-        <v>1.66</v>
+        <v>0.9935504859839501</v>
       </c>
       <c r="M4">
-        <v>1.66</v>
+        <v>0.9935504859839501</v>
       </c>
       <c r="N4">
-        <v>1.41</v>
+        <v>0.9940761651562647</v>
       </c>
       <c r="O4">
-        <v>1.163333333333333</v>
+        <v>1.00197516913891</v>
       </c>
       <c r="P4">
-        <v>1.163333333333333</v>
+        <v>1.00197516913891</v>
       </c>
       <c r="Q4">
-        <v>0.915</v>
+        <v>1.006187510716389</v>
       </c>
       <c r="R4">
-        <v>0.915</v>
+        <v>1.006187510716389</v>
       </c>
       <c r="S4">
-        <v>1.405</v>
+        <v>0.9961902447071678</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,55 +813,55 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.27</v>
+        <v>0.17</v>
       </c>
       <c r="D5">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>1.08</v>
       </c>
       <c r="F5">
-        <v>1.27</v>
+        <v>0.17</v>
       </c>
       <c r="G5">
-        <v>1.28</v>
+        <v>0.91</v>
       </c>
       <c r="H5">
-        <v>0.34</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="J5">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="K5">
-        <v>1.27</v>
+        <v>0.17</v>
       </c>
       <c r="L5">
-        <v>1.165</v>
+        <v>1.66</v>
       </c>
       <c r="M5">
-        <v>1.165</v>
+        <v>1.66</v>
       </c>
       <c r="N5">
-        <v>1.203333333333333</v>
+        <v>1.41</v>
       </c>
       <c r="O5">
-        <v>1.2</v>
+        <v>1.163333333333333</v>
       </c>
       <c r="P5">
-        <v>1.2</v>
+        <v>1.163333333333333</v>
       </c>
       <c r="Q5">
-        <v>1.2175</v>
+        <v>0.915</v>
       </c>
       <c r="R5">
-        <v>1.2175</v>
+        <v>0.915</v>
       </c>
       <c r="S5">
-        <v>1.018333333333333</v>
+        <v>1.405</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -869,55 +872,55 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="D6">
-        <v>0.99</v>
+        <v>1.63</v>
       </c>
       <c r="E6">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="G6">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I6">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="J6">
-        <v>0.99</v>
+        <v>1.63</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="L6">
-        <v>0.9350000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="M6">
-        <v>0.9350000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="N6">
-        <v>0.9866666666666667</v>
+        <v>1.203333333333333</v>
       </c>
       <c r="O6">
-        <v>0.9566666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="P6">
-        <v>0.9566666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="Q6">
-        <v>0.9675</v>
+        <v>1.2175</v>
       </c>
       <c r="R6">
-        <v>0.9675</v>
+        <v>1.2175</v>
       </c>
       <c r="S6">
-        <v>0.9116666666666666</v>
+        <v>1.018333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -928,55 +931,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="F7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="H7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="J7">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="K7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.295</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="M7">
-        <v>1.295</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="N7">
-        <v>1.24</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="O7">
-        <v>1.086666666666667</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="P7">
-        <v>1.086666666666667</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="Q7">
-        <v>0.9825</v>
+        <v>0.9675</v>
       </c>
       <c r="R7">
-        <v>0.9825</v>
+        <v>0.9675</v>
       </c>
       <c r="S7">
-        <v>1.081666666666667</v>
+        <v>0.9116666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -987,55 +990,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.563013698630137</v>
+        <v>0.67</v>
       </c>
       <c r="D8">
-        <v>0.9445205479452055</v>
+        <v>1.51</v>
       </c>
       <c r="E8">
-        <v>0.8993150684931507</v>
+        <v>1.08</v>
       </c>
       <c r="F8">
-        <v>1.563013698630137</v>
+        <v>0.67</v>
       </c>
       <c r="G8">
-        <v>0.9754794520547945</v>
+        <v>1.13</v>
       </c>
       <c r="H8">
-        <v>0.5964383561643836</v>
+        <v>1.2</v>
       </c>
       <c r="I8">
-        <v>1.012054794520548</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
-        <v>0.9445205479452055</v>
+        <v>1.51</v>
       </c>
       <c r="K8">
-        <v>1.563013698630137</v>
+        <v>0.67</v>
       </c>
       <c r="L8">
-        <v>0.9219178082191781</v>
+        <v>1.295</v>
       </c>
       <c r="M8">
-        <v>0.9219178082191781</v>
+        <v>1.295</v>
       </c>
       <c r="N8">
-        <v>0.9397716894977169</v>
+        <v>1.24</v>
       </c>
       <c r="O8">
-        <v>1.135616438356164</v>
+        <v>1.086666666666667</v>
       </c>
       <c r="P8">
-        <v>1.135616438356164</v>
+        <v>1.086666666666667</v>
       </c>
       <c r="Q8">
-        <v>1.242465753424657</v>
+        <v>0.9825</v>
       </c>
       <c r="R8">
-        <v>1.242465753424657</v>
+        <v>0.9825</v>
       </c>
       <c r="S8">
-        <v>0.9984703196347032</v>
+        <v>1.081666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1046,55 +1049,55 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8368421052631579</v>
+        <v>1.563013698630137</v>
       </c>
       <c r="D9">
-        <v>1.339473684210526</v>
+        <v>0.9445205479452055</v>
       </c>
       <c r="E9">
-        <v>0.9557894736842105</v>
+        <v>0.8993150684931507</v>
       </c>
       <c r="F9">
-        <v>0.8368421052631579</v>
+        <v>1.563013698630137</v>
       </c>
       <c r="G9">
-        <v>1.09421052631579</v>
+        <v>0.9754794520547945</v>
       </c>
       <c r="H9">
-        <v>1.109473684210526</v>
+        <v>0.5964383561643836</v>
       </c>
       <c r="I9">
-        <v>0.9363157894736842</v>
+        <v>1.012054794520548</v>
       </c>
       <c r="J9">
-        <v>1.339473684210526</v>
+        <v>0.9445205479452055</v>
       </c>
       <c r="K9">
-        <v>0.8368421052631579</v>
+        <v>1.563013698630137</v>
       </c>
       <c r="L9">
-        <v>1.147631578947368</v>
+        <v>0.9219178082191781</v>
       </c>
       <c r="M9">
-        <v>1.147631578947368</v>
+        <v>0.9219178082191781</v>
       </c>
       <c r="N9">
-        <v>1.129824561403509</v>
+        <v>0.9397716894977169</v>
       </c>
       <c r="O9">
-        <v>1.044035087719298</v>
+        <v>1.135616438356164</v>
       </c>
       <c r="P9">
-        <v>1.044035087719298</v>
+        <v>1.135616438356164</v>
       </c>
       <c r="Q9">
-        <v>0.9922368421052632</v>
+        <v>1.242465753424657</v>
       </c>
       <c r="R9">
-        <v>0.9922368421052632</v>
+        <v>1.242465753424657</v>
       </c>
       <c r="S9">
-        <v>1.045350877192982</v>
+        <v>0.9984703196347032</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1105,55 +1108,55 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8710526315789474</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="D10">
-        <v>1.141578947368421</v>
+        <v>1.339473684210526</v>
       </c>
       <c r="E10">
-        <v>0.9894736842105263</v>
+        <v>0.9557894736842105</v>
       </c>
       <c r="F10">
-        <v>0.8710526315789474</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="G10">
-        <v>1.053157894736842</v>
+        <v>1.09421052631579</v>
       </c>
       <c r="H10">
-        <v>1.081052631578947</v>
+        <v>1.109473684210526</v>
       </c>
       <c r="I10">
-        <v>0.9742105263157895</v>
+        <v>0.9363157894736842</v>
       </c>
       <c r="J10">
-        <v>1.141578947368421</v>
+        <v>1.339473684210526</v>
       </c>
       <c r="K10">
-        <v>0.8710526315789474</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="L10">
-        <v>1.065526315789474</v>
+        <v>1.147631578947368</v>
       </c>
       <c r="M10">
-        <v>1.065526315789474</v>
+        <v>1.147631578947368</v>
       </c>
       <c r="N10">
-        <v>1.06140350877193</v>
+        <v>1.129824561403509</v>
       </c>
       <c r="O10">
-        <v>1.000701754385965</v>
+        <v>1.044035087719298</v>
       </c>
       <c r="P10">
-        <v>1.000701754385965</v>
+        <v>1.044035087719298</v>
       </c>
       <c r="Q10">
-        <v>0.9682894736842106</v>
+        <v>0.9922368421052632</v>
       </c>
       <c r="R10">
-        <v>0.9682894736842106</v>
+        <v>0.9922368421052632</v>
       </c>
       <c r="S10">
-        <v>1.018421052631579</v>
+        <v>1.045350877192982</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1164,55 +1167,55 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5142319999999997</v>
+        <v>0.8710526315789474</v>
       </c>
       <c r="D11">
-        <v>1.643243999999998</v>
+        <v>1.141578947368421</v>
       </c>
       <c r="E11">
-        <v>1.057152000000001</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="F11">
-        <v>0.5142319999999997</v>
+        <v>0.8710526315789474</v>
       </c>
       <c r="G11">
-        <v>0.936459999999999</v>
+        <v>1.053157894736842</v>
       </c>
       <c r="H11">
-        <v>2.213712000000001</v>
+        <v>1.081052631578947</v>
       </c>
       <c r="I11">
-        <v>0.9178320000000002</v>
+        <v>0.9742105263157895</v>
       </c>
       <c r="J11">
-        <v>1.643243999999998</v>
+        <v>1.141578947368421</v>
       </c>
       <c r="K11">
-        <v>0.5142319999999997</v>
+        <v>0.8710526315789474</v>
       </c>
       <c r="L11">
-        <v>1.350198</v>
+        <v>1.065526315789474</v>
       </c>
       <c r="M11">
-        <v>1.350198</v>
+        <v>1.065526315789474</v>
       </c>
       <c r="N11">
-        <v>1.212285333333333</v>
+        <v>1.06140350877193</v>
       </c>
       <c r="O11">
-        <v>1.071542666666667</v>
+        <v>1.000701754385965</v>
       </c>
       <c r="P11">
-        <v>1.071542666666667</v>
+        <v>1.000701754385965</v>
       </c>
       <c r="Q11">
-        <v>0.9322149999999998</v>
+        <v>0.9682894736842106</v>
       </c>
       <c r="R11">
-        <v>0.9322149999999998</v>
+        <v>0.9682894736842106</v>
       </c>
       <c r="S11">
-        <v>1.213772</v>
+        <v>1.018421052631579</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1223,55 +1226,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.17</v>
+        <v>0.5142319999999997</v>
       </c>
       <c r="D12">
-        <v>2.246512500000004</v>
+        <v>1.643243999999998</v>
       </c>
       <c r="E12">
-        <v>1.08</v>
+        <v>1.057152000000001</v>
       </c>
       <c r="F12">
-        <v>0.17</v>
+        <v>0.5142319999999997</v>
       </c>
       <c r="G12">
-        <v>0.9081750000000011</v>
+        <v>0.936459999999999</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>2.213712000000001</v>
       </c>
       <c r="I12">
-        <v>0.83</v>
+        <v>0.9178320000000002</v>
       </c>
       <c r="J12">
-        <v>2.246512500000004</v>
+        <v>1.643243999999998</v>
       </c>
       <c r="K12">
-        <v>0.17</v>
+        <v>0.5142319999999997</v>
       </c>
       <c r="L12">
-        <v>1.663256250000002</v>
+        <v>1.350198</v>
       </c>
       <c r="M12">
-        <v>1.663256250000002</v>
+        <v>1.350198</v>
       </c>
       <c r="N12">
-        <v>1.411562500000002</v>
+        <v>1.212285333333333</v>
       </c>
       <c r="O12">
-        <v>1.165504166666668</v>
+        <v>1.071542666666667</v>
       </c>
       <c r="P12">
-        <v>1.165504166666668</v>
+        <v>1.071542666666667</v>
       </c>
       <c r="Q12">
-        <v>0.9166281250000009</v>
+        <v>0.9322149999999998</v>
       </c>
       <c r="R12">
-        <v>0.9166281250000009</v>
+        <v>0.9322149999999998</v>
       </c>
       <c r="S12">
-        <v>1.405781250000001</v>
+        <v>1.213772</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1282,55 +1285,55 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.519477379379202</v>
+        <v>0.17</v>
       </c>
       <c r="D13">
-        <v>1.713506770022395</v>
+        <v>2.246512500000004</v>
       </c>
       <c r="E13">
-        <v>1.046071783628804</v>
+        <v>1.08</v>
       </c>
       <c r="F13">
-        <v>0.519477379379202</v>
+        <v>0.17</v>
       </c>
       <c r="G13">
-        <v>0.9483273253888016</v>
+        <v>0.9081750000000011</v>
       </c>
       <c r="H13">
-        <v>2.2202796978176</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>0.8999274604544005</v>
+        <v>0.83</v>
       </c>
       <c r="J13">
-        <v>1.713506770022395</v>
+        <v>2.246512500000004</v>
       </c>
       <c r="K13">
-        <v>0.519477379379202</v>
+        <v>0.17</v>
       </c>
       <c r="L13">
-        <v>1.379789276825599</v>
+        <v>1.663256250000002</v>
       </c>
       <c r="M13">
-        <v>1.379789276825599</v>
+        <v>1.663256250000002</v>
       </c>
       <c r="N13">
-        <v>1.235968626346667</v>
+        <v>1.411562500000002</v>
       </c>
       <c r="O13">
-        <v>1.093018644343467</v>
+        <v>1.165504166666668</v>
       </c>
       <c r="P13">
-        <v>1.093018644343467</v>
+        <v>1.165504166666668</v>
       </c>
       <c r="Q13">
-        <v>0.9496333281024008</v>
+        <v>0.9166281250000009</v>
       </c>
       <c r="R13">
-        <v>0.9496333281024008</v>
+        <v>0.9166281250000009</v>
       </c>
       <c r="S13">
-        <v>1.224598402781867</v>
+        <v>1.405781250000001</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1341,55 +1344,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9968473732645435</v>
+        <v>0.519477379379202</v>
       </c>
       <c r="D14">
-        <v>0.996869772825618</v>
+        <v>1.713506770022395</v>
       </c>
       <c r="E14">
-        <v>0.9975226471973041</v>
+        <v>1.046071783628804</v>
       </c>
       <c r="F14">
-        <v>0.9968473732645435</v>
+        <v>0.519477379379202</v>
       </c>
       <c r="G14">
-        <v>0.9956733436892881</v>
+        <v>0.9483273253888016</v>
       </c>
       <c r="H14">
-        <v>0.9965847135272942</v>
+        <v>2.2202796978176</v>
       </c>
       <c r="I14">
-        <v>0.9963007466790557</v>
+        <v>0.8999274604544005</v>
       </c>
       <c r="J14">
-        <v>0.996869772825618</v>
+        <v>1.713506770022395</v>
       </c>
       <c r="K14">
-        <v>0.9968473732645435</v>
+        <v>0.519477379379202</v>
       </c>
       <c r="L14">
-        <v>0.9971962100114611</v>
+        <v>1.379789276825599</v>
       </c>
       <c r="M14">
-        <v>0.9971962100114611</v>
+        <v>1.379789276825599</v>
       </c>
       <c r="N14">
-        <v>0.9966885879040701</v>
+        <v>1.235968626346667</v>
       </c>
       <c r="O14">
-        <v>0.9970799310958219</v>
+        <v>1.093018644343467</v>
       </c>
       <c r="P14">
-        <v>0.9970799310958219</v>
+        <v>1.093018644343467</v>
       </c>
       <c r="Q14">
-        <v>0.9970217916380023</v>
+        <v>0.9496333281024008</v>
       </c>
       <c r="R14">
-        <v>0.9970217916380023</v>
+        <v>0.9496333281024008</v>
       </c>
       <c r="S14">
-        <v>0.9966330995305173</v>
+        <v>1.224598402781867</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1400,55 +1403,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.024527590290205</v>
+        <v>0.9968473732645435</v>
       </c>
       <c r="D15">
-        <v>1.021608247625589</v>
+        <v>0.996869772825618</v>
       </c>
       <c r="E15">
-        <v>0.9797131448367369</v>
+        <v>0.9975226471973041</v>
       </c>
       <c r="F15">
-        <v>1.024527590290205</v>
+        <v>0.9968473732645435</v>
       </c>
       <c r="G15">
-        <v>0.9841329652090788</v>
+        <v>0.9956733436892881</v>
       </c>
       <c r="H15">
-        <v>0.9771677898470656</v>
+        <v>0.9965847135272942</v>
       </c>
       <c r="I15">
-        <v>0.9936041022955843</v>
+        <v>0.9963007466790557</v>
       </c>
       <c r="J15">
-        <v>1.021608247625589</v>
+        <v>0.996869772825618</v>
       </c>
       <c r="K15">
-        <v>1.024527590290205</v>
+        <v>0.9968473732645435</v>
       </c>
       <c r="L15">
-        <v>1.000660696231163</v>
+        <v>0.9971962100114611</v>
       </c>
       <c r="M15">
-        <v>1.000660696231163</v>
+        <v>0.9971962100114611</v>
       </c>
       <c r="N15">
-        <v>0.9951514525571348</v>
+        <v>0.9966885879040701</v>
       </c>
       <c r="O15">
-        <v>1.008616327584177</v>
+        <v>0.9970799310958219</v>
       </c>
       <c r="P15">
-        <v>1.008616327584177</v>
+        <v>0.9970799310958219</v>
       </c>
       <c r="Q15">
-        <v>1.012594143260684</v>
+        <v>0.9970217916380023</v>
       </c>
       <c r="R15">
-        <v>1.012594143260684</v>
+        <v>0.9970217916380023</v>
       </c>
       <c r="S15">
-        <v>0.9967923066840431</v>
+        <v>0.9966330995305173</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1459,55 +1462,55 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.101253032053976</v>
+        <v>1.024527590290205</v>
       </c>
       <c r="D16">
-        <v>0.9258232334357401</v>
+        <v>1.021608247625589</v>
       </c>
       <c r="E16">
-        <v>0.9298990285482226</v>
+        <v>0.9797131448367369</v>
       </c>
       <c r="F16">
-        <v>1.101253032053976</v>
+        <v>1.024527590290205</v>
       </c>
       <c r="G16">
-        <v>1.008679821377049</v>
+        <v>0.9841329652090788</v>
       </c>
       <c r="H16">
-        <v>0.878655123063419</v>
+        <v>0.9771677898470656</v>
       </c>
       <c r="I16">
-        <v>1.009246686912663</v>
+        <v>0.9936041022955843</v>
       </c>
       <c r="J16">
-        <v>0.9258232334357401</v>
+        <v>1.021608247625589</v>
       </c>
       <c r="K16">
-        <v>1.101253032053976</v>
+        <v>1.024527590290205</v>
       </c>
       <c r="L16">
-        <v>0.9278611309919813</v>
+        <v>1.000660696231163</v>
       </c>
       <c r="M16">
-        <v>0.9278611309919813</v>
+        <v>1.000660696231163</v>
       </c>
       <c r="N16">
-        <v>0.9548006944536706</v>
+        <v>0.9951514525571348</v>
       </c>
       <c r="O16">
-        <v>0.9856584313459796</v>
+        <v>1.008616327584177</v>
       </c>
       <c r="P16">
-        <v>0.9856584313459796</v>
+        <v>1.008616327584177</v>
       </c>
       <c r="Q16">
-        <v>1.014557081522979</v>
+        <v>1.012594143260684</v>
       </c>
       <c r="R16">
-        <v>1.014557081522979</v>
+        <v>1.012594143260684</v>
       </c>
       <c r="S16">
-        <v>0.9755928208985116</v>
+        <v>0.9967923066840431</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1518,55 +1521,55 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9751873718625141</v>
+        <v>1.101253032053976</v>
       </c>
       <c r="D17">
-        <v>1.014394995805296</v>
+        <v>0.9258232334357401</v>
       </c>
       <c r="E17">
-        <v>0.9979961565808437</v>
+        <v>0.9298990285482226</v>
       </c>
       <c r="F17">
-        <v>0.9751873718625141</v>
+        <v>1.101253032053976</v>
       </c>
       <c r="G17">
-        <v>1.002428392429441</v>
+        <v>1.008679821377049</v>
       </c>
       <c r="H17">
-        <v>1.008116220382204</v>
+        <v>0.878655123063419</v>
       </c>
       <c r="I17">
-        <v>0.9928573941264751</v>
+        <v>1.009246686912663</v>
       </c>
       <c r="J17">
-        <v>1.014394995805296</v>
+        <v>0.9258232334357401</v>
       </c>
       <c r="K17">
-        <v>0.9751873718625141</v>
+        <v>1.101253032053976</v>
       </c>
       <c r="L17">
-        <v>1.00619557619307</v>
+        <v>0.9278611309919813</v>
       </c>
       <c r="M17">
-        <v>1.00619557619307</v>
+        <v>0.9278611309919813</v>
       </c>
       <c r="N17">
-        <v>1.00493984827186</v>
+        <v>0.9548006944536706</v>
       </c>
       <c r="O17">
-        <v>0.9958595080828845</v>
+        <v>0.9856584313459796</v>
       </c>
       <c r="P17">
-        <v>0.9958595080828845</v>
+        <v>0.9856584313459796</v>
       </c>
       <c r="Q17">
-        <v>0.9906914740277919</v>
+        <v>1.014557081522979</v>
       </c>
       <c r="R17">
-        <v>0.9906914740277919</v>
+        <v>1.014557081522979</v>
       </c>
       <c r="S17">
-        <v>0.9984967551977957</v>
+        <v>0.9755928208985116</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1577,55 +1580,55 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9954035352831356</v>
+        <v>0.9751873718625141</v>
       </c>
       <c r="D18">
-        <v>0.9975059483334101</v>
+        <v>1.014394995805296</v>
       </c>
       <c r="E18">
-        <v>0.9930571074907828</v>
+        <v>0.9979961565808437</v>
       </c>
       <c r="F18">
-        <v>0.9954035352831356</v>
+        <v>0.9751873718625141</v>
       </c>
       <c r="G18">
-        <v>1.008222898978604</v>
+        <v>1.002428392429441</v>
       </c>
       <c r="H18">
-        <v>0.9513463629076518</v>
+        <v>1.008116220382204</v>
       </c>
       <c r="I18">
-        <v>0.9975603311693901</v>
+        <v>0.9928573941264751</v>
       </c>
       <c r="J18">
-        <v>0.9975059483334101</v>
+        <v>1.014394995805296</v>
       </c>
       <c r="K18">
-        <v>0.9954035352831356</v>
+        <v>0.9751873718625141</v>
       </c>
       <c r="L18">
-        <v>0.9952815279120965</v>
+        <v>1.00619557619307</v>
       </c>
       <c r="M18">
-        <v>0.9952815279120965</v>
+        <v>1.00619557619307</v>
       </c>
       <c r="N18">
-        <v>0.9995953182675991</v>
+        <v>1.00493984827186</v>
       </c>
       <c r="O18">
-        <v>0.9953221970357763</v>
+        <v>0.9958595080828845</v>
       </c>
       <c r="P18">
-        <v>0.9953221970357763</v>
+        <v>0.9958595080828845</v>
       </c>
       <c r="Q18">
-        <v>0.9953425315976161</v>
+        <v>0.9906914740277919</v>
       </c>
       <c r="R18">
-        <v>0.9953425315976161</v>
+        <v>0.9906914740277919</v>
       </c>
       <c r="S18">
-        <v>0.9905160306938292</v>
+        <v>0.9984967551977957</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1636,55 +1639,55 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9911218196369541</v>
+        <v>0.9954035352831356</v>
       </c>
       <c r="D19">
-        <v>0.9628666434375849</v>
+        <v>0.9975059483334101</v>
       </c>
       <c r="E19">
-        <v>0.9933181522654339</v>
+        <v>0.9930571074907828</v>
       </c>
       <c r="F19">
-        <v>0.9911218196369541</v>
+        <v>0.9954035352831356</v>
       </c>
       <c r="G19">
-        <v>1.018985768607288</v>
+        <v>1.008222898978604</v>
       </c>
       <c r="H19">
-        <v>0.9216515452850875</v>
+        <v>0.9513463629076518</v>
       </c>
       <c r="I19">
-        <v>1.002326283959694</v>
+        <v>0.9975603311693901</v>
       </c>
       <c r="J19">
-        <v>0.9628666434375849</v>
+        <v>0.9975059483334101</v>
       </c>
       <c r="K19">
-        <v>0.9911218196369541</v>
+        <v>0.9954035352831356</v>
       </c>
       <c r="L19">
-        <v>0.9780923978515094</v>
+        <v>0.9952815279120965</v>
       </c>
       <c r="M19">
-        <v>0.9780923978515094</v>
+        <v>0.9952815279120965</v>
       </c>
       <c r="N19">
-        <v>0.9917235214367688</v>
+        <v>0.9995953182675991</v>
       </c>
       <c r="O19">
-        <v>0.9824355384466577</v>
+        <v>0.9953221970357763</v>
       </c>
       <c r="P19">
-        <v>0.9824355384466577</v>
+        <v>0.9953221970357763</v>
       </c>
       <c r="Q19">
-        <v>0.9846071087442317</v>
+        <v>0.9953425315976161</v>
       </c>
       <c r="R19">
-        <v>0.9846071087442317</v>
+        <v>0.9953425315976161</v>
       </c>
       <c r="S19">
-        <v>0.9817117021986737</v>
+        <v>0.9905160306938292</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1695,55 +1698,55 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.116027452271029</v>
+        <v>0.9911218196369541</v>
       </c>
       <c r="D20">
-        <v>0.9672320938335206</v>
+        <v>0.9628666434375849</v>
       </c>
       <c r="E20">
-        <v>1.009535451967634</v>
+        <v>0.9933181522654339</v>
       </c>
       <c r="F20">
-        <v>1.116027452271029</v>
+        <v>0.9911218196369541</v>
       </c>
       <c r="G20">
-        <v>0.9754458370330165</v>
+        <v>1.018985768607288</v>
       </c>
       <c r="H20">
-        <v>0.8661020042519392</v>
+        <v>0.9216515452850875</v>
       </c>
       <c r="I20">
-        <v>1.000473639807285</v>
+        <v>1.002326283959694</v>
       </c>
       <c r="J20">
-        <v>0.9672320938335206</v>
+        <v>0.9628666434375849</v>
       </c>
       <c r="K20">
-        <v>1.116027452271029</v>
+        <v>0.9911218196369541</v>
       </c>
       <c r="L20">
-        <v>0.9883837729005772</v>
+        <v>0.9780923978515094</v>
       </c>
       <c r="M20">
-        <v>0.9883837729005772</v>
+        <v>0.9780923978515094</v>
       </c>
       <c r="N20">
-        <v>0.9840711276113904</v>
+        <v>0.9917235214367688</v>
       </c>
       <c r="O20">
-        <v>1.030931666024061</v>
+        <v>0.9824355384466577</v>
       </c>
       <c r="P20">
-        <v>1.030931666024061</v>
+        <v>0.9824355384466577</v>
       </c>
       <c r="Q20">
-        <v>1.052205612585803</v>
+        <v>0.9846071087442317</v>
       </c>
       <c r="R20">
-        <v>1.052205612585803</v>
+        <v>0.9846071087442317</v>
       </c>
       <c r="S20">
-        <v>0.9891360798607375</v>
+        <v>0.9817117021986737</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1754,55 +1757,55 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.021830700593244</v>
+        <v>1.116027452271029</v>
       </c>
       <c r="D21">
-        <v>1.017643186650791</v>
+        <v>0.9672320938335206</v>
       </c>
       <c r="E21">
-        <v>0.9772845079115264</v>
+        <v>1.009535451967634</v>
       </c>
       <c r="F21">
-        <v>1.021830700593244</v>
+        <v>1.116027452271029</v>
       </c>
       <c r="G21">
-        <v>0.9832803891146028</v>
+        <v>0.9754458370330165</v>
       </c>
       <c r="H21">
-        <v>0.9858070524496827</v>
+        <v>0.8661020042519392</v>
       </c>
       <c r="I21">
-        <v>0.9949587225345162</v>
+        <v>1.000473639807285</v>
       </c>
       <c r="J21">
-        <v>1.017643186650791</v>
+        <v>0.9672320938335206</v>
       </c>
       <c r="K21">
-        <v>1.021830700593244</v>
+        <v>1.116027452271029</v>
       </c>
       <c r="L21">
-        <v>0.9974638472811589</v>
+        <v>0.9883837729005772</v>
       </c>
       <c r="M21">
-        <v>0.9974638472811589</v>
+        <v>0.9883837729005772</v>
       </c>
       <c r="N21">
-        <v>0.9927360278923069</v>
+        <v>0.9840711276113904</v>
       </c>
       <c r="O21">
-        <v>1.005586131718521</v>
+        <v>1.030931666024061</v>
       </c>
       <c r="P21">
-        <v>1.005586131718521</v>
+        <v>1.030931666024061</v>
       </c>
       <c r="Q21">
-        <v>1.009647273937202</v>
+        <v>1.052205612585803</v>
       </c>
       <c r="R21">
-        <v>1.009647273937202</v>
+        <v>1.052205612585803</v>
       </c>
       <c r="S21">
-        <v>0.9968007598757271</v>
+        <v>0.9891360798607375</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1813,55 +1816,55 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.0293335892834</v>
+        <v>1.021830700593244</v>
       </c>
       <c r="D22">
-        <v>1.002206257168574</v>
+        <v>1.017643186650791</v>
       </c>
       <c r="E22">
-        <v>0.97815373414169</v>
+        <v>0.9772845079115264</v>
       </c>
       <c r="F22">
-        <v>1.0293335892834</v>
+        <v>1.021830700593244</v>
       </c>
       <c r="G22">
-        <v>0.9858066685257119</v>
+        <v>0.9832803891146028</v>
       </c>
       <c r="H22">
-        <v>0.9259051181659962</v>
+        <v>0.9858070524496827</v>
       </c>
       <c r="I22">
-        <v>1.002873269023595</v>
+        <v>0.9949587225345162</v>
       </c>
       <c r="J22">
-        <v>1.002206257168574</v>
+        <v>1.017643186650791</v>
       </c>
       <c r="K22">
-        <v>1.0293335892834</v>
+        <v>1.021830700593244</v>
       </c>
       <c r="L22">
-        <v>0.990179995655132</v>
+        <v>0.9974638472811589</v>
       </c>
       <c r="M22">
-        <v>0.990179995655132</v>
+        <v>0.9974638472811589</v>
       </c>
       <c r="N22">
-        <v>0.9887222199453253</v>
+        <v>0.9927360278923069</v>
       </c>
       <c r="O22">
-        <v>1.003231193531221</v>
+        <v>1.005586131718521</v>
       </c>
       <c r="P22">
-        <v>1.003231193531221</v>
+        <v>1.005586131718521</v>
       </c>
       <c r="Q22">
-        <v>1.009756792469266</v>
+        <v>1.009647273937202</v>
       </c>
       <c r="R22">
-        <v>1.009756792469266</v>
+        <v>1.009647273937202</v>
       </c>
       <c r="S22">
-        <v>0.9873797727181612</v>
+        <v>0.9968007598757271</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1872,55 +1875,55 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.177841721381283</v>
+        <v>1.0293335892834</v>
       </c>
       <c r="D23">
-        <v>0.8016801648203444</v>
+        <v>1.002206257168574</v>
       </c>
       <c r="E23">
-        <v>0.9247715971698511</v>
+        <v>0.97815373414169</v>
       </c>
       <c r="F23">
-        <v>1.177841721381283</v>
+        <v>1.0293335892834</v>
       </c>
       <c r="G23">
-        <v>1.010815388676611</v>
+        <v>0.9858066685257119</v>
       </c>
       <c r="H23">
-        <v>0.725026817266226</v>
+        <v>0.9259051181659962</v>
       </c>
       <c r="I23">
-        <v>1.022928524719253</v>
+        <v>1.002873269023595</v>
       </c>
       <c r="J23">
-        <v>0.8016801648203444</v>
+        <v>1.002206257168574</v>
       </c>
       <c r="K23">
-        <v>1.177841721381283</v>
+        <v>1.0293335892834</v>
       </c>
       <c r="L23">
-        <v>0.8632258809950978</v>
+        <v>0.990179995655132</v>
       </c>
       <c r="M23">
-        <v>0.8632258809950978</v>
+        <v>0.990179995655132</v>
       </c>
       <c r="N23">
-        <v>0.9124223835556021</v>
+        <v>0.9887222199453253</v>
       </c>
       <c r="O23">
-        <v>0.9680978277904929</v>
+        <v>1.003231193531221</v>
       </c>
       <c r="P23">
-        <v>0.9680978277904929</v>
+        <v>1.003231193531221</v>
       </c>
       <c r="Q23">
-        <v>1.020533801188191</v>
+        <v>1.009756792469266</v>
       </c>
       <c r="R23">
-        <v>1.020533801188191</v>
+        <v>1.009756792469266</v>
       </c>
       <c r="S23">
-        <v>0.9438440356722614</v>
+        <v>0.9873797727181612</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1931,55 +1934,55 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.103821556477175</v>
+        <v>1.177841721381283</v>
       </c>
       <c r="D24">
-        <v>0.9493325861635875</v>
+        <v>0.8016801648203444</v>
       </c>
       <c r="E24">
-        <v>0.9546855228140086</v>
+        <v>0.9247715971698511</v>
       </c>
       <c r="F24">
-        <v>1.103821556477175</v>
+        <v>1.177841721381283</v>
       </c>
       <c r="G24">
-        <v>0.9481899067299578</v>
+        <v>1.010815388676611</v>
       </c>
       <c r="H24">
-        <v>0.8184471592115412</v>
+        <v>0.725026817266226</v>
       </c>
       <c r="I24">
-        <v>1.019296753514219</v>
+        <v>1.022928524719253</v>
       </c>
       <c r="J24">
-        <v>0.9493325861635875</v>
+        <v>0.8016801648203444</v>
       </c>
       <c r="K24">
-        <v>1.103821556477175</v>
+        <v>1.177841721381283</v>
       </c>
       <c r="L24">
-        <v>0.952009054488798</v>
+        <v>0.8632258809950978</v>
       </c>
       <c r="M24">
-        <v>0.952009054488798</v>
+        <v>0.8632258809950978</v>
       </c>
       <c r="N24">
-        <v>0.9507360052358513</v>
+        <v>0.9124223835556021</v>
       </c>
       <c r="O24">
-        <v>1.002613221818257</v>
+        <v>0.9680978277904929</v>
       </c>
       <c r="P24">
-        <v>1.002613221818257</v>
+        <v>0.9680978277904929</v>
       </c>
       <c r="Q24">
-        <v>1.027915305482987</v>
+        <v>1.020533801188191</v>
       </c>
       <c r="R24">
-        <v>1.027915305482987</v>
+        <v>1.020533801188191</v>
       </c>
       <c r="S24">
-        <v>0.9656289141517481</v>
+        <v>0.9438440356722614</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1990,55 +1993,55 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.011868068278187</v>
+        <v>1.103821556477175</v>
       </c>
       <c r="D25">
-        <v>1.012191307157298</v>
+        <v>0.9493325861635875</v>
       </c>
       <c r="E25">
-        <v>0.9843936077935844</v>
+        <v>0.9546855228140086</v>
       </c>
       <c r="F25">
-        <v>1.011868068278187</v>
+        <v>1.103821556477175</v>
       </c>
       <c r="G25">
-        <v>1.011295517411586</v>
+        <v>0.9481899067299578</v>
       </c>
       <c r="H25">
-        <v>0.9502109824424705</v>
+        <v>0.8184471592115412</v>
       </c>
       <c r="I25">
-        <v>0.9929851411878285</v>
+        <v>1.019296753514219</v>
       </c>
       <c r="J25">
-        <v>1.012191307157298</v>
+        <v>0.9493325861635875</v>
       </c>
       <c r="K25">
-        <v>1.011868068278187</v>
+        <v>1.103821556477175</v>
       </c>
       <c r="L25">
-        <v>0.9982924574754412</v>
+        <v>0.952009054488798</v>
       </c>
       <c r="M25">
-        <v>0.9982924574754412</v>
+        <v>0.952009054488798</v>
       </c>
       <c r="N25">
-        <v>1.00262681078749</v>
+        <v>0.9507360052358513</v>
       </c>
       <c r="O25">
-        <v>1.002817661076356</v>
+        <v>1.002613221818257</v>
       </c>
       <c r="P25">
-        <v>1.002817661076356</v>
+        <v>1.002613221818257</v>
       </c>
       <c r="Q25">
-        <v>1.005080262876814</v>
+        <v>1.027915305482987</v>
       </c>
       <c r="R25">
-        <v>1.005080262876814</v>
+        <v>1.027915305482987</v>
       </c>
       <c r="S25">
-        <v>0.9938241040451591</v>
+        <v>0.9656289141517481</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2049,55 +2052,55 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.995072860415317</v>
+        <v>1.011868068278187</v>
       </c>
       <c r="D26">
-        <v>0.9965259653578927</v>
+        <v>1.012191307157298</v>
       </c>
       <c r="E26">
-        <v>0.9981391270190013</v>
+        <v>0.9843936077935844</v>
       </c>
       <c r="F26">
-        <v>0.995072860415317</v>
+        <v>1.011868068278187</v>
       </c>
       <c r="G26">
-        <v>0.9955848282166134</v>
+        <v>1.011295517411586</v>
       </c>
       <c r="H26">
-        <v>0.9976102559051925</v>
+        <v>0.9502109824424705</v>
       </c>
       <c r="I26">
-        <v>0.9964504761976876</v>
+        <v>0.9929851411878285</v>
       </c>
       <c r="J26">
-        <v>0.9965259653578927</v>
+        <v>1.012191307157298</v>
       </c>
       <c r="K26">
-        <v>0.995072860415317</v>
+        <v>1.011868068278187</v>
       </c>
       <c r="L26">
-        <v>0.997332546188447</v>
+        <v>0.9982924574754412</v>
       </c>
       <c r="M26">
-        <v>0.997332546188447</v>
+        <v>0.9982924574754412</v>
       </c>
       <c r="N26">
-        <v>0.9967499735311692</v>
+        <v>1.00262681078749</v>
       </c>
       <c r="O26">
-        <v>0.9965793175974037</v>
+        <v>1.002817661076356</v>
       </c>
       <c r="P26">
-        <v>0.9965793175974036</v>
+        <v>1.002817661076356</v>
       </c>
       <c r="Q26">
-        <v>0.9962027033018819</v>
+        <v>1.005080262876814</v>
       </c>
       <c r="R26">
-        <v>0.9962027033018819</v>
+        <v>1.005080262876814</v>
       </c>
       <c r="S26">
-        <v>0.9965639188519507</v>
+        <v>0.9938241040451591</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2108,55 +2111,55 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.045308558466811</v>
+        <v>0.995072860415317</v>
       </c>
       <c r="D27">
-        <v>0.9474741471515509</v>
+        <v>0.9965259653578927</v>
       </c>
       <c r="E27">
-        <v>0.9941386719139287</v>
+        <v>0.9981391270190013</v>
       </c>
       <c r="F27">
-        <v>1.045308558466811</v>
+        <v>0.995072860415317</v>
       </c>
       <c r="G27">
-        <v>0.9818421053028822</v>
+        <v>0.9955848282166134</v>
       </c>
       <c r="H27">
-        <v>0.9688634983978935</v>
+        <v>0.9976102559051925</v>
       </c>
       <c r="I27">
-        <v>1.007416828479663</v>
+        <v>0.9964504761976876</v>
       </c>
       <c r="J27">
-        <v>0.9474741471515509</v>
+        <v>0.9965259653578927</v>
       </c>
       <c r="K27">
-        <v>1.045308558466811</v>
+        <v>0.995072860415317</v>
       </c>
       <c r="L27">
-        <v>0.9708064095327398</v>
+        <v>0.997332546188447</v>
       </c>
       <c r="M27">
-        <v>0.9708064095327398</v>
+        <v>0.997332546188447</v>
       </c>
       <c r="N27">
-        <v>0.974484974789454</v>
+        <v>0.9967499735311692</v>
       </c>
       <c r="O27">
-        <v>0.9956404591774302</v>
+        <v>0.9965793175974037</v>
       </c>
       <c r="P27">
-        <v>0.9956404591774302</v>
+        <v>0.9965793175974036</v>
       </c>
       <c r="Q27">
-        <v>1.008057483999775</v>
+        <v>0.9962027033018819</v>
       </c>
       <c r="R27">
-        <v>1.008057483999775</v>
+        <v>0.9962027033018819</v>
       </c>
       <c r="S27">
-        <v>0.9908406349521215</v>
+        <v>0.9965639188519507</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2167,55 +2170,55 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.112570947651163</v>
+        <v>1.045308558466811</v>
       </c>
       <c r="D28">
-        <v>0.909427444873252</v>
+        <v>0.9474741471515509</v>
       </c>
       <c r="E28">
-        <v>0.9771647669919779</v>
+        <v>0.9941386719139287</v>
       </c>
       <c r="F28">
-        <v>1.112570947651163</v>
+        <v>1.045308558466811</v>
       </c>
       <c r="G28">
-        <v>0.982492927593181</v>
+        <v>0.9818421053028822</v>
       </c>
       <c r="H28">
-        <v>0.8938648468906534</v>
+        <v>0.9688634983978935</v>
       </c>
       <c r="I28">
-        <v>1.012932926624762</v>
+        <v>1.007416828479663</v>
       </c>
       <c r="J28">
-        <v>0.909427444873252</v>
+        <v>0.9474741471515509</v>
       </c>
       <c r="K28">
-        <v>1.112570947651163</v>
+        <v>1.045308558466811</v>
       </c>
       <c r="L28">
-        <v>0.9432961059326149</v>
+        <v>0.9708064095327398</v>
       </c>
       <c r="M28">
-        <v>0.9432961059326149</v>
+        <v>0.9708064095327398</v>
       </c>
       <c r="N28">
-        <v>0.9563617131528036</v>
+        <v>0.974484974789454</v>
       </c>
       <c r="O28">
-        <v>0.9997210531721311</v>
+        <v>0.9956404591774302</v>
       </c>
       <c r="P28">
-        <v>0.9997210531721311</v>
+        <v>0.9956404591774302</v>
       </c>
       <c r="Q28">
-        <v>1.027933526791889</v>
+        <v>1.008057483999775</v>
       </c>
       <c r="R28">
-        <v>1.027933526791889</v>
+        <v>1.008057483999775</v>
       </c>
       <c r="S28">
-        <v>0.9814089767708317</v>
+        <v>0.9908406349521215</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2226,55 +2229,55 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.01224936365162</v>
+        <v>1.112570947651163</v>
       </c>
       <c r="D29">
-        <v>1.012245098338998</v>
+        <v>0.909427444873252</v>
       </c>
       <c r="E29">
-        <v>0.9845895045835857</v>
+        <v>0.9771647669919779</v>
       </c>
       <c r="F29">
-        <v>1.01224936365162</v>
+        <v>1.112570947651163</v>
       </c>
       <c r="G29">
-        <v>1.011151302651962</v>
+        <v>0.982492927593181</v>
       </c>
       <c r="H29">
-        <v>0.950892311971388</v>
+        <v>0.8938648468906534</v>
       </c>
       <c r="I29">
-        <v>0.9929172359504321</v>
+        <v>1.012932926624762</v>
       </c>
       <c r="J29">
-        <v>1.012245098338998</v>
+        <v>0.909427444873252</v>
       </c>
       <c r="K29">
-        <v>1.01224936365162</v>
+        <v>1.112570947651163</v>
       </c>
       <c r="L29">
-        <v>0.9984173014612919</v>
+        <v>0.9432961059326149</v>
       </c>
       <c r="M29">
-        <v>0.9984173014612919</v>
+        <v>0.9432961059326149</v>
       </c>
       <c r="N29">
-        <v>1.002661968524849</v>
+        <v>0.9563617131528036</v>
       </c>
       <c r="O29">
-        <v>1.003027988858068</v>
+        <v>0.9997210531721311</v>
       </c>
       <c r="P29">
-        <v>1.003027988858068</v>
+        <v>0.9997210531721311</v>
       </c>
       <c r="Q29">
-        <v>1.005333332556456</v>
+        <v>1.027933526791889</v>
       </c>
       <c r="R29">
-        <v>1.005333332556456</v>
+        <v>1.027933526791889</v>
       </c>
       <c r="S29">
-        <v>0.9940074695246643</v>
+        <v>0.9814089767708317</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2285,55 +2288,55 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9950946209358675</v>
+        <v>1.01224936365162</v>
       </c>
       <c r="D30">
-        <v>0.9965476153733869</v>
+        <v>1.012245098338998</v>
       </c>
       <c r="E30">
-        <v>0.9982033547196165</v>
+        <v>0.9845895045835857</v>
       </c>
       <c r="F30">
-        <v>0.9950946209358675</v>
+        <v>1.01224936365162</v>
       </c>
       <c r="G30">
-        <v>0.9955521394700736</v>
+        <v>1.011151302651962</v>
       </c>
       <c r="H30">
-        <v>0.9977071137603875</v>
+        <v>0.950892311971388</v>
       </c>
       <c r="I30">
-        <v>0.9964547402319642</v>
+        <v>0.9929172359504321</v>
       </c>
       <c r="J30">
-        <v>0.9965476153733869</v>
+        <v>1.012245098338998</v>
       </c>
       <c r="K30">
-        <v>0.9950946209358675</v>
+        <v>1.01224936365162</v>
       </c>
       <c r="L30">
-        <v>0.9973754850465018</v>
+        <v>0.9984173014612919</v>
       </c>
       <c r="M30">
-        <v>0.9973754850465018</v>
+        <v>0.9984173014612919</v>
       </c>
       <c r="N30">
-        <v>0.9967677031876924</v>
+        <v>1.002661968524849</v>
       </c>
       <c r="O30">
-        <v>0.9966151970096236</v>
+        <v>1.003027988858068</v>
       </c>
       <c r="P30">
-        <v>0.9966151970096236</v>
+        <v>1.003027988858068</v>
       </c>
       <c r="Q30">
-        <v>0.9962350529911846</v>
+        <v>1.005333332556456</v>
       </c>
       <c r="R30">
-        <v>0.9962350529911846</v>
+        <v>1.005333332556456</v>
       </c>
       <c r="S30">
-        <v>0.9965932640818828</v>
+        <v>0.9940074695246643</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2344,55 +2347,55 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.045260155597667</v>
+        <v>0.9950946209358675</v>
       </c>
       <c r="D31">
-        <v>0.9481562112418985</v>
+        <v>0.9965476153733869</v>
       </c>
       <c r="E31">
-        <v>0.9942325040454667</v>
+        <v>0.9982033547196165</v>
       </c>
       <c r="F31">
-        <v>1.045260155597667</v>
+        <v>0.9950946209358675</v>
       </c>
       <c r="G31">
-        <v>0.9819992067531051</v>
+        <v>0.9955521394700736</v>
       </c>
       <c r="H31">
-        <v>0.9694895536113993</v>
+        <v>0.9977071137603875</v>
       </c>
       <c r="I31">
-        <v>1.007270810359942</v>
+        <v>0.9964547402319642</v>
       </c>
       <c r="J31">
-        <v>0.9481562112418985</v>
+        <v>0.9965476153733869</v>
       </c>
       <c r="K31">
-        <v>1.045260155597667</v>
+        <v>0.9950946209358675</v>
       </c>
       <c r="L31">
-        <v>0.9711943576436826</v>
+        <v>0.9973754850465018</v>
       </c>
       <c r="M31">
-        <v>0.9711943576436826</v>
+        <v>0.9973754850465018</v>
       </c>
       <c r="N31">
-        <v>0.9747959740134901</v>
+        <v>0.9967677031876924</v>
       </c>
       <c r="O31">
-        <v>0.9958829569616774</v>
+        <v>0.9966151970096236</v>
       </c>
       <c r="P31">
-        <v>0.9958829569616775</v>
+        <v>0.9966151970096236</v>
       </c>
       <c r="Q31">
-        <v>1.008227256620675</v>
+        <v>0.9962350529911846</v>
       </c>
       <c r="R31">
-        <v>1.008227256620675</v>
+        <v>0.9962350529911846</v>
       </c>
       <c r="S31">
-        <v>0.9910680736015799</v>
+        <v>0.9965932640818828</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2403,55 +2406,55 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.111198898220095</v>
+        <v>1.045260155597667</v>
       </c>
       <c r="D32">
-        <v>0.9108976425400995</v>
+        <v>0.9481562112418985</v>
       </c>
       <c r="E32">
-        <v>0.9773531158480915</v>
+        <v>0.9942325040454667</v>
       </c>
       <c r="F32">
-        <v>1.111198898220095</v>
+        <v>1.045260155597667</v>
       </c>
       <c r="G32">
-        <v>0.9826230965116188</v>
+        <v>0.9819992067531051</v>
       </c>
       <c r="H32">
-        <v>0.8959062235952584</v>
+        <v>0.9694895536113993</v>
       </c>
       <c r="I32">
-        <v>1.012718390567636</v>
+        <v>1.007270810359942</v>
       </c>
       <c r="J32">
-        <v>0.9108976425400995</v>
+        <v>0.9481562112418985</v>
       </c>
       <c r="K32">
-        <v>1.111198898220095</v>
+        <v>1.045260155597667</v>
       </c>
       <c r="L32">
-        <v>0.9441253791940956</v>
+        <v>0.9711943576436826</v>
       </c>
       <c r="M32">
-        <v>0.9441253791940956</v>
+        <v>0.9711943576436826</v>
       </c>
       <c r="N32">
-        <v>0.95695795163327</v>
+        <v>0.9747959740134901</v>
       </c>
       <c r="O32">
-        <v>0.9998165522027621</v>
+        <v>0.9958829569616774</v>
       </c>
       <c r="P32">
-        <v>0.9998165522027621</v>
+        <v>0.9958829569616775</v>
       </c>
       <c r="Q32">
-        <v>1.027662138707095</v>
+        <v>1.008227256620675</v>
       </c>
       <c r="R32">
-        <v>1.027662138707095</v>
+        <v>1.008227256620675</v>
       </c>
       <c r="S32">
-        <v>0.9817828945471333</v>
+        <v>0.9910680736015799</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2462,55 +2465,55 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.012960136409418</v>
+        <v>1.111198898220095</v>
       </c>
       <c r="D33">
-        <v>1.012248412275817</v>
+        <v>0.9108976425400995</v>
       </c>
       <c r="E33">
-        <v>0.9851896494842823</v>
+        <v>0.9773531158480915</v>
       </c>
       <c r="F33">
-        <v>1.012960136409418</v>
+        <v>1.111198898220095</v>
       </c>
       <c r="G33">
-        <v>1.010660348827105</v>
+        <v>0.9826230965116188</v>
       </c>
       <c r="H33">
-        <v>0.9534883869341844</v>
+        <v>0.8959062235952584</v>
       </c>
       <c r="I33">
-        <v>0.9926923083417295</v>
+        <v>1.012718390567636</v>
       </c>
       <c r="J33">
-        <v>1.012248412275817</v>
+        <v>0.9108976425400995</v>
       </c>
       <c r="K33">
-        <v>1.012960136409418</v>
+        <v>1.111198898220095</v>
       </c>
       <c r="L33">
-        <v>0.9987190308800498</v>
+        <v>0.9441253791940956</v>
       </c>
       <c r="M33">
-        <v>0.9987190308800498</v>
+        <v>0.9441253791940956</v>
       </c>
       <c r="N33">
-        <v>1.002699470195735</v>
+        <v>0.95695795163327</v>
       </c>
       <c r="O33">
-        <v>1.003466066056506</v>
+        <v>0.9998165522027621</v>
       </c>
       <c r="P33">
-        <v>1.003466066056506</v>
+        <v>0.9998165522027621</v>
       </c>
       <c r="Q33">
-        <v>1.005839583644734</v>
+        <v>1.027662138707095</v>
       </c>
       <c r="R33">
-        <v>1.005839583644734</v>
+        <v>1.027662138707095</v>
       </c>
       <c r="S33">
-        <v>0.9945398737120894</v>
+        <v>0.9817828945471333</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2521,55 +2524,55 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9950869710595921</v>
+        <v>1.012960136409418</v>
       </c>
       <c r="D34">
-        <v>0.9964734268429559</v>
+        <v>1.012248412275817</v>
       </c>
       <c r="E34">
-        <v>0.9982727472676751</v>
+        <v>0.9851896494842823</v>
       </c>
       <c r="F34">
-        <v>0.9950869710595921</v>
+        <v>1.012960136409418</v>
       </c>
       <c r="G34">
-        <v>0.9954533764585048</v>
+        <v>1.010660348827105</v>
       </c>
       <c r="H34">
-        <v>0.9981327763187867</v>
+        <v>0.9534883869341844</v>
       </c>
       <c r="I34">
-        <v>0.9964534190832309</v>
+        <v>0.9926923083417295</v>
       </c>
       <c r="J34">
-        <v>0.9964734268429559</v>
+        <v>1.012248412275817</v>
       </c>
       <c r="K34">
-        <v>0.9950869710595921</v>
+        <v>1.012960136409418</v>
       </c>
       <c r="L34">
-        <v>0.9973730870553155</v>
+        <v>0.9987190308800498</v>
       </c>
       <c r="M34">
-        <v>0.9973730870553155</v>
+        <v>0.9987190308800498</v>
       </c>
       <c r="N34">
-        <v>0.9967331835230452</v>
+        <v>1.002699470195735</v>
       </c>
       <c r="O34">
-        <v>0.9966110483900743</v>
+        <v>1.003466066056506</v>
       </c>
       <c r="P34">
-        <v>0.9966110483900744</v>
+        <v>1.003466066056506</v>
       </c>
       <c r="Q34">
-        <v>0.9962300290574538</v>
+        <v>1.005839583644734</v>
       </c>
       <c r="R34">
-        <v>0.9962300290574538</v>
+        <v>1.005839583644734</v>
       </c>
       <c r="S34">
-        <v>0.9966454528384577</v>
+        <v>0.9945398737120894</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2580,55 +2583,55 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.044238151463877</v>
+        <v>0.9950869710595921</v>
       </c>
       <c r="D35">
-        <v>0.9505702242268387</v>
+        <v>0.9964734268429559</v>
       </c>
       <c r="E35">
-        <v>0.994370920329569</v>
+        <v>0.9982727472676751</v>
       </c>
       <c r="F35">
-        <v>1.044238151463877</v>
+        <v>0.9950869710595921</v>
       </c>
       <c r="G35">
-        <v>0.9827567320910132</v>
+        <v>0.9954533764585048</v>
       </c>
       <c r="H35">
-        <v>0.9716628493476441</v>
+        <v>0.9981327763187867</v>
       </c>
       <c r="I35">
-        <v>1.006710849040998</v>
+        <v>0.9964534190832309</v>
       </c>
       <c r="J35">
-        <v>0.9505702242268387</v>
+        <v>0.9964734268429559</v>
       </c>
       <c r="K35">
-        <v>1.044238151463877</v>
+        <v>0.9950869710595921</v>
       </c>
       <c r="L35">
-        <v>0.9724705722782039</v>
+        <v>0.9973730870553155</v>
       </c>
       <c r="M35">
-        <v>0.9724705722782039</v>
+        <v>0.9973730870553155</v>
       </c>
       <c r="N35">
-        <v>0.9758992922158071</v>
+        <v>0.9967331835230452</v>
       </c>
       <c r="O35">
-        <v>0.9963930986734283</v>
+        <v>0.9966110483900743</v>
       </c>
       <c r="P35">
-        <v>0.9963930986734283</v>
+        <v>0.9966110483900744</v>
       </c>
       <c r="Q35">
-        <v>1.00835436187104</v>
+        <v>0.9962300290574538</v>
       </c>
       <c r="R35">
-        <v>1.00835436187104</v>
+        <v>0.9962300290574538</v>
       </c>
       <c r="S35">
-        <v>0.99171828774999</v>
+        <v>0.9966454528384577</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -2639,55 +2642,55 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.104521664943239</v>
+        <v>1.044238151463877</v>
       </c>
       <c r="D36">
-        <v>0.9162656925026695</v>
+        <v>0.9505702242268387</v>
       </c>
       <c r="E36">
-        <v>0.9780127319252823</v>
+        <v>0.994370920329569</v>
       </c>
       <c r="F36">
-        <v>1.104521664943239</v>
+        <v>1.044238151463877</v>
       </c>
       <c r="G36">
-        <v>0.9833667900797619</v>
+        <v>0.9827567320910132</v>
       </c>
       <c r="H36">
-        <v>0.9037915361046628</v>
+        <v>0.9716628493476441</v>
       </c>
       <c r="I36">
-        <v>1.01177658331932</v>
+        <v>1.006710849040998</v>
       </c>
       <c r="J36">
-        <v>0.9162656925026695</v>
+        <v>0.9505702242268387</v>
       </c>
       <c r="K36">
-        <v>1.104521664943239</v>
+        <v>1.044238151463877</v>
       </c>
       <c r="L36">
-        <v>0.9471392122139759</v>
+        <v>0.9724705722782039</v>
       </c>
       <c r="M36">
-        <v>0.9471392122139759</v>
+        <v>0.9724705722782039</v>
       </c>
       <c r="N36">
-        <v>0.9592150715025712</v>
+        <v>0.9758992922158071</v>
       </c>
       <c r="O36">
-        <v>0.9996000297903969</v>
+        <v>0.9963930986734283</v>
       </c>
       <c r="P36">
-        <v>0.9996000297903967</v>
+        <v>0.9963930986734283</v>
       </c>
       <c r="Q36">
-        <v>1.025830438578607</v>
+        <v>1.00835436187104</v>
       </c>
       <c r="R36">
-        <v>1.025830438578607</v>
+        <v>1.00835436187104</v>
       </c>
       <c r="S36">
-        <v>0.9829558331458225</v>
+        <v>0.99171828774999</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2698,55 +2701,55 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.011812535939779</v>
+        <v>1.104521664943239</v>
       </c>
       <c r="D37">
-        <v>1.012181674959401</v>
+        <v>0.9162656925026695</v>
       </c>
       <c r="E37">
-        <v>0.9843743407098211</v>
+        <v>0.9780127319252823</v>
       </c>
       <c r="F37">
-        <v>1.011812535939779</v>
+        <v>1.104521664943239</v>
       </c>
       <c r="G37">
-        <v>1.011313800827512</v>
+        <v>0.9833667900797619</v>
       </c>
       <c r="H37">
-        <v>0.9501296274402828</v>
+        <v>0.9037915361046628</v>
       </c>
       <c r="I37">
-        <v>0.9929918151586692</v>
+        <v>1.01177658331932</v>
       </c>
       <c r="J37">
-        <v>1.012181674959401</v>
+        <v>0.9162656925026695</v>
       </c>
       <c r="K37">
-        <v>1.011812535939779</v>
+        <v>1.104521664943239</v>
       </c>
       <c r="L37">
-        <v>0.9982780078346111</v>
+        <v>0.9471392122139759</v>
       </c>
       <c r="M37">
-        <v>0.9982780078346111</v>
+        <v>0.9471392122139759</v>
       </c>
       <c r="N37">
-        <v>1.002623272165578</v>
+        <v>0.9592150715025712</v>
       </c>
       <c r="O37">
-        <v>1.002789517203</v>
+        <v>0.9996000297903969</v>
       </c>
       <c r="P37">
-        <v>1.002789517203</v>
+        <v>0.9996000297903967</v>
       </c>
       <c r="Q37">
-        <v>1.005045271887195</v>
+        <v>1.025830438578607</v>
       </c>
       <c r="R37">
-        <v>1.005045271887195</v>
+        <v>1.025830438578607</v>
       </c>
       <c r="S37">
-        <v>0.993800632505911</v>
+        <v>0.9829558331458225</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2757,55 +2760,55 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9950653460098542</v>
+        <v>1.011812535939779</v>
       </c>
       <c r="D38">
-        <v>0.9965209657858962</v>
+        <v>1.012181674959401</v>
       </c>
       <c r="E38">
-        <v>0.9981356746248922</v>
+        <v>0.9843743407098211</v>
       </c>
       <c r="F38">
-        <v>0.9950653460098542</v>
+        <v>1.011812535939779</v>
       </c>
       <c r="G38">
-        <v>0.9955899992456123</v>
+        <v>1.011313800827512</v>
       </c>
       <c r="H38">
-        <v>0.9975977365566431</v>
+        <v>0.9501296274402828</v>
       </c>
       <c r="I38">
-        <v>0.996448240153091</v>
+        <v>0.9929918151586692</v>
       </c>
       <c r="J38">
-        <v>0.9965209657858962</v>
+        <v>1.012181674959401</v>
       </c>
       <c r="K38">
-        <v>0.9950653460098542</v>
+        <v>1.011812535939779</v>
       </c>
       <c r="L38">
-        <v>0.9973283202053942</v>
+        <v>0.9982780078346111</v>
       </c>
       <c r="M38">
-        <v>0.9973283202053942</v>
+        <v>0.9982780078346111</v>
       </c>
       <c r="N38">
-        <v>0.9967488798854669</v>
+        <v>1.002623272165578</v>
       </c>
       <c r="O38">
-        <v>0.9965739954735474</v>
+        <v>1.002789517203</v>
       </c>
       <c r="P38">
-        <v>0.9965739954735474</v>
+        <v>1.002789517203</v>
       </c>
       <c r="Q38">
-        <v>0.9961968331076241</v>
+        <v>1.005045271887195</v>
       </c>
       <c r="R38">
-        <v>0.9961968331076241</v>
+        <v>1.005045271887195</v>
       </c>
       <c r="S38">
-        <v>0.9965596603959982</v>
+        <v>0.993800632505911</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2816,55 +2819,55 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.045304440522536</v>
+        <v>0.9950653460098542</v>
       </c>
       <c r="D39">
-        <v>0.9473890879167499</v>
+        <v>0.9965209657858962</v>
       </c>
       <c r="E39">
-        <v>0.9941328471333349</v>
+        <v>0.9981356746248922</v>
       </c>
       <c r="F39">
-        <v>1.045304440522536</v>
+        <v>0.9950653460098542</v>
       </c>
       <c r="G39">
-        <v>0.9818249690523397</v>
+        <v>0.9955899992456123</v>
       </c>
       <c r="H39">
-        <v>0.9687942905901582</v>
+        <v>0.9975977365566431</v>
       </c>
       <c r="I39">
-        <v>1.007432159997238</v>
+        <v>0.996448240153091</v>
       </c>
       <c r="J39">
-        <v>0.9473890879167499</v>
+        <v>0.9965209657858962</v>
       </c>
       <c r="K39">
-        <v>1.045304440522536</v>
+        <v>0.9950653460098542</v>
       </c>
       <c r="L39">
-        <v>0.9707609675250424</v>
+        <v>0.9973283202053942</v>
       </c>
       <c r="M39">
-        <v>0.9707609675250424</v>
+        <v>0.9973283202053942</v>
       </c>
       <c r="N39">
-        <v>0.9744489680341415</v>
+        <v>0.9967488798854669</v>
       </c>
       <c r="O39">
-        <v>0.9956087918575403</v>
+        <v>0.9965739954735474</v>
       </c>
       <c r="P39">
-        <v>0.9956087918575403</v>
+        <v>0.9965739954735474</v>
       </c>
       <c r="Q39">
-        <v>1.008032704023789</v>
+        <v>0.9961968331076241</v>
       </c>
       <c r="R39">
-        <v>1.008032704023789</v>
+        <v>0.9961968331076241</v>
       </c>
       <c r="S39">
-        <v>0.990812965868726</v>
+        <v>0.9965596603959982</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2875,55 +2878,55 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.112719187114258</v>
+        <v>1.045304440522536</v>
       </c>
       <c r="D40">
-        <v>0.9092498181453634</v>
+        <v>0.9473890879167499</v>
       </c>
       <c r="E40">
-        <v>0.9771462250489301</v>
+        <v>0.9941328471333349</v>
       </c>
       <c r="F40">
-        <v>1.112719187114258</v>
+        <v>1.045304440522536</v>
       </c>
       <c r="G40">
-        <v>0.9824804425726705</v>
+        <v>0.9818249690523397</v>
       </c>
       <c r="H40">
-        <v>0.8936270905316075</v>
+        <v>0.9687942905901582</v>
       </c>
       <c r="I40">
-        <v>1.012956955738889</v>
+        <v>1.007432159997238</v>
       </c>
       <c r="J40">
-        <v>0.9092498181453634</v>
+        <v>0.9473890879167499</v>
       </c>
       <c r="K40">
-        <v>1.112719187114258</v>
+        <v>1.045304440522536</v>
       </c>
       <c r="L40">
-        <v>0.9431980215971467</v>
+        <v>0.9707609675250424</v>
       </c>
       <c r="M40">
-        <v>0.9431980215971467</v>
+        <v>0.9707609675250424</v>
       </c>
       <c r="N40">
-        <v>0.9562921619223212</v>
+        <v>0.9744489680341415</v>
       </c>
       <c r="O40">
-        <v>0.9997050767695171</v>
+        <v>0.9956087918575403</v>
       </c>
       <c r="P40">
-        <v>0.9997050767695171</v>
+        <v>0.9956087918575403</v>
       </c>
       <c r="Q40">
-        <v>1.027958604355703</v>
+        <v>1.008032704023789</v>
       </c>
       <c r="R40">
-        <v>1.027958604355703</v>
+        <v>1.008032704023789</v>
       </c>
       <c r="S40">
-        <v>0.9813632865252865</v>
+        <v>0.990812965868726</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2934,55 +2937,55 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.012697010092046</v>
+        <v>1.112719187114258</v>
       </c>
       <c r="D41">
-        <v>1.012278966026009</v>
+        <v>0.9092498181453634</v>
       </c>
       <c r="E41">
-        <v>0.9848610533292906</v>
+        <v>0.9771462250489301</v>
       </c>
       <c r="F41">
-        <v>1.012697010092046</v>
+        <v>1.112719187114258</v>
       </c>
       <c r="G41">
-        <v>1.010959001413057</v>
+        <v>0.9824804425726705</v>
       </c>
       <c r="H41">
-        <v>0.9520462095985665</v>
+        <v>0.8936270905316075</v>
       </c>
       <c r="I41">
-        <v>0.9928105523997602</v>
+        <v>1.012956955738889</v>
       </c>
       <c r="J41">
-        <v>1.012278966026009</v>
+        <v>0.9092498181453634</v>
       </c>
       <c r="K41">
-        <v>1.012697010092046</v>
+        <v>1.112719187114258</v>
       </c>
       <c r="L41">
-        <v>0.9985700096776498</v>
+        <v>0.9431980215971467</v>
       </c>
       <c r="M41">
-        <v>0.9985700096776498</v>
+        <v>0.9431980215971467</v>
       </c>
       <c r="N41">
-        <v>1.002699673589452</v>
+        <v>0.9562921619223212</v>
       </c>
       <c r="O41">
-        <v>1.003279009815782</v>
+        <v>0.9997050767695171</v>
       </c>
       <c r="P41">
-        <v>1.003279009815782</v>
+        <v>0.9997050767695171</v>
       </c>
       <c r="Q41">
-        <v>1.005633509884848</v>
+        <v>1.027958604355703</v>
       </c>
       <c r="R41">
-        <v>1.005633509884848</v>
+        <v>1.027958604355703</v>
       </c>
       <c r="S41">
-        <v>0.9942754654764548</v>
+        <v>0.9813632865252865</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2993,55 +2996,55 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.995125396393678</v>
+        <v>1.012697010092046</v>
       </c>
       <c r="D42">
-        <v>0.9965283635694783</v>
+        <v>1.012278966026009</v>
       </c>
       <c r="E42">
-        <v>0.9982333990310432</v>
+        <v>0.9848610533292906</v>
       </c>
       <c r="F42">
-        <v>0.995125396393678</v>
+        <v>1.012697010092046</v>
       </c>
       <c r="G42">
-        <v>0.9955457191539122</v>
+        <v>1.010959001413057</v>
       </c>
       <c r="H42">
-        <v>0.9978747201969927</v>
+        <v>0.9520462095985665</v>
       </c>
       <c r="I42">
-        <v>0.9964609764534866</v>
+        <v>0.9928105523997602</v>
       </c>
       <c r="J42">
-        <v>0.9965283635694783</v>
+        <v>1.012278966026009</v>
       </c>
       <c r="K42">
-        <v>0.995125396393678</v>
+        <v>1.012697010092046</v>
       </c>
       <c r="L42">
-        <v>0.9973808813002607</v>
+        <v>0.9985700096776498</v>
       </c>
       <c r="M42">
-        <v>0.9973808813002607</v>
+        <v>0.9985700096776498</v>
       </c>
       <c r="N42">
-        <v>0.9967691605848112</v>
+        <v>1.002699673589452</v>
       </c>
       <c r="O42">
-        <v>0.9966290529980665</v>
+        <v>1.003279009815782</v>
       </c>
       <c r="P42">
-        <v>0.9966290529980665</v>
+        <v>1.003279009815782</v>
       </c>
       <c r="Q42">
-        <v>0.9962531388469694</v>
+        <v>1.005633509884848</v>
       </c>
       <c r="R42">
-        <v>0.9962531388469694</v>
+        <v>1.005633509884848</v>
       </c>
       <c r="S42">
-        <v>0.9966280957997653</v>
+        <v>0.9942754654764548</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3052,55 +3055,55 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.044953359947038</v>
+        <v>0.995125396393678</v>
       </c>
       <c r="D43">
-        <v>0.9492354464076243</v>
+        <v>0.9965283635694783</v>
       </c>
       <c r="E43">
-        <v>0.9942987521936092</v>
+        <v>0.9982333990310432</v>
       </c>
       <c r="F43">
-        <v>1.044953359947038</v>
+        <v>0.995125396393678</v>
       </c>
       <c r="G43">
-        <v>0.9823574672308099</v>
+        <v>0.9955457191539122</v>
       </c>
       <c r="H43">
-        <v>0.9704836842619075</v>
+        <v>0.9978747201969927</v>
       </c>
       <c r="I43">
-        <v>1.007021194202935</v>
+        <v>0.9964609764534866</v>
       </c>
       <c r="J43">
-        <v>0.9492354464076243</v>
+        <v>0.9965283635694783</v>
       </c>
       <c r="K43">
-        <v>1.044953359947038</v>
+        <v>0.995125396393678</v>
       </c>
       <c r="L43">
-        <v>0.9717670993006167</v>
+        <v>0.9973808813002607</v>
       </c>
       <c r="M43">
-        <v>0.9717670993006167</v>
+        <v>0.9973808813002607</v>
       </c>
       <c r="N43">
-        <v>0.9752972219440145</v>
+        <v>0.9967691605848112</v>
       </c>
       <c r="O43">
-        <v>0.9961625195160906</v>
+        <v>0.9966290529980665</v>
       </c>
       <c r="P43">
-        <v>0.9961625195160906</v>
+        <v>0.9966290529980665</v>
       </c>
       <c r="Q43">
-        <v>1.008360229623827</v>
+        <v>0.9962531388469694</v>
       </c>
       <c r="R43">
-        <v>1.008360229623827</v>
+        <v>0.9962531388469694</v>
       </c>
       <c r="S43">
-        <v>0.9913916507073207</v>
+        <v>0.9966280957997653</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3111,55 +3114,55 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.108398327917463</v>
+        <v>1.044953359947038</v>
       </c>
       <c r="D44">
-        <v>0.9133174691781485</v>
+        <v>0.9492354464076243</v>
       </c>
       <c r="E44">
-        <v>0.9776141083249671</v>
+        <v>0.9942987521936092</v>
       </c>
       <c r="F44">
-        <v>1.108398327917463</v>
+        <v>1.044953359947038</v>
       </c>
       <c r="G44">
-        <v>0.9829700557626213</v>
+        <v>0.9823574672308099</v>
       </c>
       <c r="H44">
-        <v>0.8994387060226627</v>
+        <v>0.9704836842619075</v>
       </c>
       <c r="I44">
-        <v>1.012322704243025</v>
+        <v>1.007021194202935</v>
       </c>
       <c r="J44">
-        <v>0.9133174691781485</v>
+        <v>0.9492354464076243</v>
       </c>
       <c r="K44">
-        <v>1.108398327917463</v>
+        <v>1.044953359947038</v>
       </c>
       <c r="L44">
-        <v>0.9454657887515578</v>
+        <v>0.9717670993006167</v>
       </c>
       <c r="M44">
-        <v>0.9454657887515578</v>
+        <v>0.9717670993006167</v>
       </c>
       <c r="N44">
-        <v>0.957967211088579</v>
+        <v>0.9752972219440145</v>
       </c>
       <c r="O44">
-        <v>0.999776635140193</v>
+        <v>0.9961625195160906</v>
       </c>
       <c r="P44">
-        <v>0.9997766351401931</v>
+        <v>0.9961625195160906</v>
       </c>
       <c r="Q44">
-        <v>1.026932058334511</v>
+        <v>1.008360229623827</v>
       </c>
       <c r="R44">
-        <v>1.026932058334511</v>
+        <v>1.008360229623827</v>
       </c>
       <c r="S44">
-        <v>0.9823435619081481</v>
+        <v>0.9913916507073207</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3170,55 +3173,55 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.012990142809726</v>
+        <v>1.108398327917463</v>
       </c>
       <c r="D45">
-        <v>1.012228553912279</v>
+        <v>0.9133174691781485</v>
       </c>
       <c r="E45">
-        <v>0.9852845646417051</v>
+        <v>0.9776141083249671</v>
       </c>
       <c r="F45">
-        <v>1.012990142809726</v>
+        <v>1.108398327917463</v>
       </c>
       <c r="G45">
-        <v>1.010569340140721</v>
+        <v>0.9829700557626213</v>
       </c>
       <c r="H45">
-        <v>0.9539092819749294</v>
+        <v>0.8994387060226627</v>
       </c>
       <c r="I45">
-        <v>0.9926553039181976</v>
+        <v>1.012322704243025</v>
       </c>
       <c r="J45">
-        <v>1.012228553912279</v>
+        <v>0.9133174691781485</v>
       </c>
       <c r="K45">
-        <v>1.012990142809726</v>
+        <v>1.108398327917463</v>
       </c>
       <c r="L45">
-        <v>0.998756559276992</v>
+        <v>0.9454657887515578</v>
       </c>
       <c r="M45">
-        <v>0.998756559276992</v>
+        <v>0.9454657887515578</v>
       </c>
       <c r="N45">
-        <v>1.002694152898235</v>
+        <v>0.957967211088579</v>
       </c>
       <c r="O45">
-        <v>1.003501087121237</v>
+        <v>0.999776635140193</v>
       </c>
       <c r="P45">
-        <v>1.003501087121237</v>
+        <v>0.9997766351401931</v>
       </c>
       <c r="Q45">
-        <v>1.005873351043359</v>
+        <v>1.026932058334511</v>
       </c>
       <c r="R45">
-        <v>1.005873351043359</v>
+        <v>1.026932058334511</v>
       </c>
       <c r="S45">
-        <v>0.9946061978995929</v>
+        <v>0.9823435619081481</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3229,55 +3232,55 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9950475204895171</v>
+        <v>1.012990142809726</v>
       </c>
       <c r="D46">
-        <v>0.9964614553732934</v>
+        <v>1.012228553912279</v>
       </c>
       <c r="E46">
-        <v>0.9982899859593245</v>
+        <v>0.9852845646417051</v>
       </c>
       <c r="F46">
-        <v>0.9950475204895171</v>
+        <v>1.012990142809726</v>
       </c>
       <c r="G46">
-        <v>0.9954254694599737</v>
+        <v>1.010569340140721</v>
       </c>
       <c r="H46">
-        <v>0.9982336743512924</v>
+        <v>0.9539092819749294</v>
       </c>
       <c r="I46">
-        <v>0.996441499289432</v>
+        <v>0.9926553039181976</v>
       </c>
       <c r="J46">
-        <v>0.9964614553732934</v>
+        <v>1.012228553912279</v>
       </c>
       <c r="K46">
-        <v>0.9950475204895171</v>
+        <v>1.012990142809726</v>
       </c>
       <c r="L46">
-        <v>0.997375720666309</v>
+        <v>0.998756559276992</v>
       </c>
       <c r="M46">
-        <v>0.997375720666309</v>
+        <v>0.998756559276992</v>
       </c>
       <c r="N46">
-        <v>0.9967256369308638</v>
+        <v>1.002694152898235</v>
       </c>
       <c r="O46">
-        <v>0.9965996539407117</v>
+        <v>1.003501087121237</v>
       </c>
       <c r="P46">
-        <v>0.9965996539407117</v>
+        <v>1.003501087121237</v>
       </c>
       <c r="Q46">
-        <v>0.996211620577913</v>
+        <v>1.005873351043359</v>
       </c>
       <c r="R46">
-        <v>0.996211620577913</v>
+        <v>1.005873351043359</v>
       </c>
       <c r="S46">
-        <v>0.9966499341538055</v>
+        <v>0.9946061978995929</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3288,55 +3291,55 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.043971922946565</v>
+        <v>0.9950475204895171</v>
       </c>
       <c r="D47">
-        <v>0.9509361137886021</v>
+        <v>0.9964614553732934</v>
       </c>
       <c r="E47">
-        <v>0.994390396110393</v>
+        <v>0.9982899859593245</v>
       </c>
       <c r="F47">
-        <v>1.043971922946565</v>
+        <v>0.9950475204895171</v>
       </c>
       <c r="G47">
-        <v>0.9828576511439224</v>
+        <v>0.9954254694599737</v>
       </c>
       <c r="H47">
-        <v>0.9719856006005217</v>
+        <v>0.9982336743512924</v>
       </c>
       <c r="I47">
-        <v>1.006618490331098</v>
+        <v>0.996441499289432</v>
       </c>
       <c r="J47">
-        <v>0.9509361137886021</v>
+        <v>0.9964614553732934</v>
       </c>
       <c r="K47">
-        <v>1.043971922946565</v>
+        <v>0.9950475204895171</v>
       </c>
       <c r="L47">
-        <v>0.9726632549494976</v>
+        <v>0.997375720666309</v>
       </c>
       <c r="M47">
-        <v>0.9726632549494976</v>
+        <v>0.997375720666309</v>
       </c>
       <c r="N47">
-        <v>0.9760613870143059</v>
+        <v>0.9967256369308638</v>
       </c>
       <c r="O47">
-        <v>0.99643281094852</v>
+        <v>0.9965996539407117</v>
       </c>
       <c r="P47">
-        <v>0.99643281094852</v>
+        <v>0.9965996539407117</v>
       </c>
       <c r="Q47">
-        <v>1.008317588948031</v>
+        <v>0.996211620577913</v>
       </c>
       <c r="R47">
-        <v>1.008317588948031</v>
+        <v>0.996211620577913</v>
       </c>
       <c r="S47">
-        <v>0.9917933624868503</v>
+        <v>0.9966499341538055</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3347,54 +3350,113 @@
         <v>46</v>
       </c>
       <c r="C48">
+        <v>1.043971922946565</v>
+      </c>
+      <c r="D48">
+        <v>0.9509361137886021</v>
+      </c>
+      <c r="E48">
+        <v>0.994390396110393</v>
+      </c>
+      <c r="F48">
+        <v>1.043971922946565</v>
+      </c>
+      <c r="G48">
+        <v>0.9828576511439224</v>
+      </c>
+      <c r="H48">
+        <v>0.9719856006005217</v>
+      </c>
+      <c r="I48">
+        <v>1.006618490331098</v>
+      </c>
+      <c r="J48">
+        <v>0.9509361137886021</v>
+      </c>
+      <c r="K48">
+        <v>1.043971922946565</v>
+      </c>
+      <c r="L48">
+        <v>0.9726632549494976</v>
+      </c>
+      <c r="M48">
+        <v>0.9726632549494976</v>
+      </c>
+      <c r="N48">
+        <v>0.9760613870143059</v>
+      </c>
+      <c r="O48">
+        <v>0.99643281094852</v>
+      </c>
+      <c r="P48">
+        <v>0.99643281094852</v>
+      </c>
+      <c r="Q48">
+        <v>1.008317588948031</v>
+      </c>
+      <c r="R48">
+        <v>1.008317588948031</v>
+      </c>
+      <c r="S48">
+        <v>0.9917933624868503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>1.103324996637349</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.9170991658014739</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.9781008008235027</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>1.103324996637349</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>0.9834573549271225</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>0.9050165512633692</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>1.011619438870583</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>0.9170991658014739</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>1.103324996637349</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>0.9475999833124883</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>0.9475999833124883</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>0.9595524405173664</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>0.9995083210874417</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>0.9995083210874417</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>1.025462489974919</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>1.025462489974919</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>0.9831030513872333</v>
       </c>
     </row>
